--- a/DA/IPT_ACRM_DA_Indice_150421.xlsx
+++ b/DA/IPT_ACRM_DA_Indice_150421.xlsx
@@ -730,9 +730,6 @@
     <t>Logística</t>
   </si>
   <si>
-    <t>Breve presentación del grupo Ingeteam, division  Energy y la unidad de negocio Fotovoltaica</t>
-  </si>
-  <si>
     <t>29.4.2015</t>
   </si>
   <si>
@@ -803,6 +800,9 @@
   </si>
   <si>
     <t>BD14 - Solicitudes de Plazos</t>
+  </si>
+  <si>
+    <t>Breve presentación de la corporación Ingeteam, la division Energy y la unidad de negocio Fotovoltaica</t>
   </si>
 </sst>
 </file>
@@ -1417,8 +1417,8 @@
   </sheetPr>
   <dimension ref="A1:AI188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD84"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -1581,10 +1581,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="12">
@@ -1620,7 +1620,7 @@
       <c r="AG4" s="18"/>
       <c r="AI4" s="23"/>
     </row>
-    <row r="5" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B5" s="31"/>
       <c r="C5" s="29" t="s">
         <v>217</v>
@@ -1659,7 +1659,7 @@
       <c r="AG5" s="18"/>
       <c r="AI5" s="23"/>
     </row>
-    <row r="6" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B6" s="31"/>
       <c r="C6" s="36" t="s">
         <v>119</v>
@@ -1698,7 +1698,7 @@
       <c r="AG6" s="18"/>
       <c r="AI6" s="23"/>
     </row>
-    <row r="7" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" s="31"/>
       <c r="C7" s="36" t="s">
         <v>218</v>
@@ -1737,7 +1737,7 @@
       <c r="AG7" s="18"/>
       <c r="AI7" s="23"/>
     </row>
-    <row r="8" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>166</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="7"/>
@@ -1834,7 +1834,7 @@
     <row r="10" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="31"/>
       <c r="C10" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="12">
@@ -1973,7 +1973,7 @@
         <v>166</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="6"/>
@@ -2156,7 +2156,7 @@
         <v>166</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="6"/>
@@ -2199,7 +2199,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="31"/>
       <c r="C18" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="12">
@@ -2242,7 +2242,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="31"/>
       <c r="C19" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="12"/>
@@ -3010,7 +3010,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="33"/>
@@ -3105,7 +3105,7 @@
       <c r="A38" s="1"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="12"/>
@@ -3144,7 +3144,7 @@
       <c r="B39" s="31"/>
       <c r="C39" s="32"/>
       <c r="D39" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -3181,7 +3181,7 @@
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
       <c r="D40" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
@@ -3218,7 +3218,7 @@
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E41" s="12">
         <v>2</v>
@@ -3257,7 +3257,7 @@
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E42" s="12">
         <v>1</v>
@@ -3296,7 +3296,7 @@
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
       <c r="D43" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E43" s="12">
         <v>1</v>
@@ -3335,7 +3335,7 @@
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E44" s="12">
         <v>2</v>
@@ -3376,7 +3376,7 @@
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
       <c r="D45" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E45" s="12">
         <v>2</v>
@@ -3414,7 +3414,7 @@
     <row r="46" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B46" s="32"/>
       <c r="C46" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D46" s="33"/>
       <c r="E46" s="12">
@@ -3454,7 +3454,7 @@
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
       <c r="D47" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E47" s="12">
         <v>1</v>
@@ -3493,7 +3493,7 @@
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
       <c r="D48" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
@@ -3529,7 +3529,7 @@
     <row r="49" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B49" s="32"/>
       <c r="C49" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D49" s="33"/>
       <c r="E49" s="12">
@@ -3568,7 +3568,7 @@
     <row r="50" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B50" s="32"/>
       <c r="C50" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D50" s="33"/>
       <c r="E50" s="12">
@@ -3607,7 +3607,7 @@
     <row r="51" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B51" s="32"/>
       <c r="C51" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D51" s="33"/>
       <c r="E51" s="12">
@@ -3648,7 +3648,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C52" s="32"/>
       <c r="D52" s="33"/>
@@ -3686,7 +3686,7 @@
     <row r="53" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B53" s="31"/>
       <c r="C53" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D53" s="33"/>
       <c r="E53" s="12">
@@ -4012,7 +4012,7 @@
     <row r="61" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B61" s="32"/>
       <c r="C61" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D61" s="33"/>
       <c r="E61" s="12">
@@ -4811,7 +4811,7 @@
     <row r="82" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B82" s="32"/>
       <c r="C82" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="33"/>
       <c r="E82" s="12">
@@ -4850,7 +4850,7 @@
     <row r="83" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B83" s="32"/>
       <c r="C83" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D83" s="33"/>
       <c r="E83" s="12">
